--- a/data/pca/factorExposure/factorExposure_2015-12-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01723410253582997</v>
+        <v>0.01732666981983385</v>
       </c>
       <c r="C2">
-        <v>0.03105009603031455</v>
+        <v>-0.03106709611412966</v>
       </c>
       <c r="D2">
-        <v>-0.08699572930571615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.1130579660218696</v>
+      </c>
+      <c r="E2">
+        <v>-0.07702222297143503</v>
+      </c>
+      <c r="F2">
+        <v>-0.009298354376391193</v>
+      </c>
+      <c r="G2">
+        <v>0.07007262103544858</v>
+      </c>
+      <c r="H2">
+        <v>-0.08472125116980911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.01566722820128048</v>
+        <v>0.008983128368550265</v>
       </c>
       <c r="C3">
-        <v>0.05481143284053713</v>
+        <v>-0.03603220751117736</v>
       </c>
       <c r="D3">
-        <v>-0.1338120865161198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.0799831431196706</v>
+      </c>
+      <c r="E3">
+        <v>-0.08204855503122864</v>
+      </c>
+      <c r="F3">
+        <v>-0.03959220838466669</v>
+      </c>
+      <c r="G3">
+        <v>0.08884469862119354</v>
+      </c>
+      <c r="H3">
+        <v>-0.01936334835323042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04960502941755428</v>
+        <v>0.05364797487651356</v>
       </c>
       <c r="C4">
-        <v>0.03342632891007168</v>
+        <v>-0.0618475052766707</v>
       </c>
       <c r="D4">
-        <v>-0.1240420800828603</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1392069442424675</v>
+      </c>
+      <c r="E4">
+        <v>-0.06326570938281129</v>
+      </c>
+      <c r="F4">
+        <v>-0.02007671716318228</v>
+      </c>
+      <c r="G4">
+        <v>-0.02637429677019903</v>
+      </c>
+      <c r="H4">
+        <v>0.02640568631862438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.04363467840786146</v>
+        <v>0.04068067259156359</v>
       </c>
       <c r="C6">
-        <v>0.005536542629894097</v>
+        <v>-0.02589543025089433</v>
       </c>
       <c r="D6">
-        <v>-0.1276989527602547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1276929632067601</v>
+      </c>
+      <c r="E6">
+        <v>-0.03983581136803167</v>
+      </c>
+      <c r="F6">
+        <v>-0.01452795311434284</v>
+      </c>
+      <c r="G6">
+        <v>0.01661013622006128</v>
+      </c>
+      <c r="H6">
+        <v>-0.005905347466280521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.02234744606249035</v>
+        <v>0.01584561161335101</v>
       </c>
       <c r="C7">
-        <v>0.01189875282021076</v>
+        <v>-0.02859380280900252</v>
       </c>
       <c r="D7">
-        <v>-0.0886112777014965</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09057843360126679</v>
+      </c>
+      <c r="E7">
+        <v>-0.04244480115664253</v>
+      </c>
+      <c r="F7">
+        <v>-0.01580509886304205</v>
+      </c>
+      <c r="G7">
+        <v>-0.0009738495307550673</v>
+      </c>
+      <c r="H7">
+        <v>-0.1046349128303687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.00952578108724712</v>
+        <v>0.00798699518159072</v>
       </c>
       <c r="C8">
-        <v>0.02813991993885405</v>
+        <v>-0.03718378143054734</v>
       </c>
       <c r="D8">
-        <v>-0.06238003914206008</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07627055584883134</v>
+      </c>
+      <c r="E8">
+        <v>-0.04332479128330357</v>
+      </c>
+      <c r="F8">
+        <v>-0.0303535502560501</v>
+      </c>
+      <c r="G8">
+        <v>0.01468653073741861</v>
+      </c>
+      <c r="H8">
+        <v>-0.03515924093340955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.04040653961264646</v>
+        <v>0.04105576232316638</v>
       </c>
       <c r="C9">
-        <v>0.03348286677278383</v>
+        <v>-0.05661050564215826</v>
       </c>
       <c r="D9">
-        <v>-0.1061043057519629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.1171564808596403</v>
+      </c>
+      <c r="E9">
+        <v>-0.04458385128363074</v>
+      </c>
+      <c r="F9">
+        <v>0.001187914422312924</v>
+      </c>
+      <c r="G9">
+        <v>-0.01721415929349077</v>
+      </c>
+      <c r="H9">
+        <v>-0.01019911568332139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.09222153931958064</v>
+        <v>0.1327233007634143</v>
       </c>
       <c r="C10">
-        <v>-0.1990355221665785</v>
+        <v>0.1914883945582729</v>
       </c>
       <c r="D10">
-        <v>0.006125750934435109</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.003074847488080327</v>
+      </c>
+      <c r="E10">
+        <v>-0.05253083364967257</v>
+      </c>
+      <c r="F10">
+        <v>-0.01483842873560342</v>
+      </c>
+      <c r="G10">
+        <v>-0.0407763866464702</v>
+      </c>
+      <c r="H10">
+        <v>0.000453997970576004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.0343955607720477</v>
+        <v>0.02877223103830526</v>
       </c>
       <c r="C11">
-        <v>0.03629533594188713</v>
+        <v>-0.04186556154246408</v>
       </c>
       <c r="D11">
-        <v>-0.0591027361091585</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05812787361212448</v>
+      </c>
+      <c r="E11">
+        <v>-0.005313855760056673</v>
+      </c>
+      <c r="F11">
+        <v>-0.00692669556677075</v>
+      </c>
+      <c r="G11">
+        <v>0.004933917537092807</v>
+      </c>
+      <c r="H11">
+        <v>-0.05003637814258494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03793586882195899</v>
+        <v>0.03256442800641079</v>
       </c>
       <c r="C12">
-        <v>0.03850371146109412</v>
+        <v>-0.04383754432674854</v>
       </c>
       <c r="D12">
-        <v>-0.05802291237008775</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05672390652659081</v>
+      </c>
+      <c r="E12">
+        <v>-0.01592603710427043</v>
+      </c>
+      <c r="F12">
+        <v>-0.002048430628437338</v>
+      </c>
+      <c r="G12">
+        <v>0.003832256524626001</v>
+      </c>
+      <c r="H12">
+        <v>-0.06389424439251634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0146204541245216</v>
+        <v>0.01891051706077006</v>
       </c>
       <c r="C13">
-        <v>0.02575101650945602</v>
+        <v>-0.03714653613458727</v>
       </c>
       <c r="D13">
-        <v>-0.11863737676101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.1400979527888775</v>
+      </c>
+      <c r="E13">
+        <v>-0.07280506838741067</v>
+      </c>
+      <c r="F13">
+        <v>-0.02917660755201006</v>
+      </c>
+      <c r="G13">
+        <v>0.01715249558909003</v>
+      </c>
+      <c r="H13">
+        <v>-0.09047860369331608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01082318966827645</v>
+        <v>0.007737484213409975</v>
       </c>
       <c r="C14">
-        <v>0.01736852498218555</v>
+        <v>-0.02279705966002291</v>
       </c>
       <c r="D14">
-        <v>-0.07971209657498701</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08339755184980231</v>
+      </c>
+      <c r="E14">
+        <v>-0.0402065597704595</v>
+      </c>
+      <c r="F14">
+        <v>0.01081654344036287</v>
+      </c>
+      <c r="G14">
+        <v>0.01691575846967988</v>
+      </c>
+      <c r="H14">
+        <v>-0.09619726077658655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001420777880770606</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.008801116777871262</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.02766422169011855</v>
+      </c>
+      <c r="E15">
+        <v>-0.007019271525437161</v>
+      </c>
+      <c r="F15">
+        <v>0.002808438856012113</v>
+      </c>
+      <c r="G15">
+        <v>0.009589779918516683</v>
+      </c>
+      <c r="H15">
+        <v>-0.0103148688456252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03633254314537146</v>
+        <v>0.02974996914714268</v>
       </c>
       <c r="C16">
-        <v>0.03795206334016668</v>
+        <v>-0.04228483292614749</v>
       </c>
       <c r="D16">
-        <v>-0.06421791272296887</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06021659327224055</v>
+      </c>
+      <c r="E16">
+        <v>-0.01935996242244432</v>
+      </c>
+      <c r="F16">
+        <v>0.005537062579784996</v>
+      </c>
+      <c r="G16">
+        <v>0.01131059612476174</v>
+      </c>
+      <c r="H16">
+        <v>-0.05669078365975069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0101181313819869</v>
+        <v>0.01101600159764511</v>
       </c>
       <c r="C19">
-        <v>0.01794791785806613</v>
+        <v>-0.02037051789438355</v>
       </c>
       <c r="D19">
-        <v>-0.1664040101554246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1286665991590877</v>
+      </c>
+      <c r="E19">
+        <v>-0.07094637164013813</v>
+      </c>
+      <c r="F19">
+        <v>0.02517287386773443</v>
+      </c>
+      <c r="G19">
+        <v>0.02577537166466549</v>
+      </c>
+      <c r="H19">
+        <v>-0.05140897886100927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.02047050196588713</v>
+        <v>0.01621129777341336</v>
       </c>
       <c r="C20">
-        <v>0.01925237948739915</v>
+        <v>-0.03113847338658102</v>
       </c>
       <c r="D20">
-        <v>-0.08374575382581695</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09411575329909445</v>
+      </c>
+      <c r="E20">
+        <v>-0.06098058416692571</v>
+      </c>
+      <c r="F20">
+        <v>0.006134228170373284</v>
+      </c>
+      <c r="G20">
+        <v>0.007327617749265907</v>
+      </c>
+      <c r="H20">
+        <v>-0.0531222270822987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.009215767299905711</v>
+        <v>0.0143524532307342</v>
       </c>
       <c r="C21">
-        <v>0.02481783401891175</v>
+        <v>-0.03497431896535582</v>
       </c>
       <c r="D21">
-        <v>-0.1225195798042464</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1340765563185137</v>
+      </c>
+      <c r="E21">
+        <v>-0.09671416184902153</v>
+      </c>
+      <c r="F21">
+        <v>0.0118890080456339</v>
+      </c>
+      <c r="G21">
+        <v>-0.02190084570495525</v>
+      </c>
+      <c r="H21">
+        <v>-0.1127693021936712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.004008443548992379</v>
+        <v>0.004998102869883405</v>
       </c>
       <c r="C22">
-        <v>0.02640271059362771</v>
+        <v>-0.03883298155839562</v>
       </c>
       <c r="D22">
-        <v>-0.07364730583953746</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1258553346134056</v>
+      </c>
+      <c r="E22">
+        <v>-0.03353472058017418</v>
+      </c>
+      <c r="F22">
+        <v>-0.07739092514695271</v>
+      </c>
+      <c r="G22">
+        <v>0.06066575577664874</v>
+      </c>
+      <c r="H22">
+        <v>0.03686237117962814</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.004041443193245097</v>
+        <v>0.00509580747216236</v>
       </c>
       <c r="C23">
-        <v>0.02639098379938018</v>
+        <v>-0.03927572967625778</v>
       </c>
       <c r="D23">
-        <v>-0.07311766555005354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1253137109541003</v>
+      </c>
+      <c r="E23">
+        <v>-0.03374962301073804</v>
+      </c>
+      <c r="F23">
+        <v>-0.07729405895989502</v>
+      </c>
+      <c r="G23">
+        <v>0.05975964256198169</v>
+      </c>
+      <c r="H23">
+        <v>0.03698947788019785</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03527439760007265</v>
+        <v>0.03133440207194754</v>
       </c>
       <c r="C24">
-        <v>0.04186891523739515</v>
+        <v>-0.05232839557229878</v>
       </c>
       <c r="D24">
-        <v>-0.0665823643833111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06492948280544243</v>
+      </c>
+      <c r="E24">
+        <v>-0.02207919955146504</v>
+      </c>
+      <c r="F24">
+        <v>0.003540506210389548</v>
+      </c>
+      <c r="G24">
+        <v>0.0009334780847197763</v>
+      </c>
+      <c r="H24">
+        <v>-0.0692417707606706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.0419623788635788</v>
+        <v>0.03608565050954642</v>
       </c>
       <c r="C25">
-        <v>0.04576338000554619</v>
+        <v>-0.05186654411802752</v>
       </c>
       <c r="D25">
-        <v>-0.06634813791131931</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06120717229814157</v>
+      </c>
+      <c r="E25">
+        <v>-0.02300039645263588</v>
+      </c>
+      <c r="F25">
+        <v>-0.007331152288370513</v>
+      </c>
+      <c r="G25">
+        <v>-0.006639241382477389</v>
+      </c>
+      <c r="H25">
+        <v>-0.05556572309055735</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.02348828101665472</v>
+        <v>0.02102064815539634</v>
       </c>
       <c r="C26">
-        <v>0.002730705337930257</v>
+        <v>-0.01604451093206863</v>
       </c>
       <c r="D26">
-        <v>-0.0525378430685276</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06342412865443117</v>
+      </c>
+      <c r="E26">
+        <v>-0.03097868863512905</v>
+      </c>
+      <c r="F26">
+        <v>0.005430516788892284</v>
+      </c>
+      <c r="G26">
+        <v>0.01439496225775775</v>
+      </c>
+      <c r="H26">
+        <v>-0.0527355426536472</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.1317609219509631</v>
+        <v>0.1881593522331361</v>
       </c>
       <c r="C28">
-        <v>-0.274465507099071</v>
+        <v>0.2586207152609055</v>
       </c>
       <c r="D28">
-        <v>0.04649577734644601</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01895283152886597</v>
+      </c>
+      <c r="E28">
+        <v>-0.07433326429628673</v>
+      </c>
+      <c r="F28">
+        <v>0.002452703857018949</v>
+      </c>
+      <c r="G28">
+        <v>-0.07258964427073426</v>
+      </c>
+      <c r="H28">
+        <v>-0.0136914021069813</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.004969984422771775</v>
+        <v>0.006699510477344263</v>
       </c>
       <c r="C29">
-        <v>0.01770075807018974</v>
+        <v>-0.02202432425101452</v>
       </c>
       <c r="D29">
-        <v>-0.06329828159348673</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.07779741024876938</v>
+      </c>
+      <c r="E29">
+        <v>-0.04314656043760749</v>
+      </c>
+      <c r="F29">
+        <v>-0.002749001319286778</v>
+      </c>
+      <c r="G29">
+        <v>0.0001946955715878246</v>
+      </c>
+      <c r="H29">
+        <v>-0.09899511683980833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04225280298038196</v>
+        <v>0.04323943420431109</v>
       </c>
       <c r="C30">
-        <v>0.03080387620329834</v>
+        <v>-0.05584627173387481</v>
       </c>
       <c r="D30">
-        <v>-0.1608831215231029</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1742766183267349</v>
+      </c>
+      <c r="E30">
+        <v>-0.03114895717573958</v>
+      </c>
+      <c r="F30">
+        <v>-0.005015226406124003</v>
+      </c>
+      <c r="G30">
+        <v>0.04126136804505966</v>
+      </c>
+      <c r="H30">
+        <v>-0.006002189356110802</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.06699568822647313</v>
+        <v>0.05644766374190378</v>
       </c>
       <c r="C31">
-        <v>0.051274430897565</v>
+        <v>-0.07154409095001595</v>
       </c>
       <c r="D31">
-        <v>-0.06140848911602888</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05283194981878392</v>
+      </c>
+      <c r="E31">
+        <v>-0.04130544087743555</v>
+      </c>
+      <c r="F31">
+        <v>-0.0423380878826232</v>
+      </c>
+      <c r="G31">
+        <v>-0.003891231747925552</v>
+      </c>
+      <c r="H31">
+        <v>-0.03296969897690578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0001395416219460714</v>
+        <v>0.009831740878500785</v>
       </c>
       <c r="C32">
-        <v>0.001912915761770476</v>
+        <v>-0.01331203002622454</v>
       </c>
       <c r="D32">
-        <v>-0.05493385585121269</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09044574903521305</v>
+      </c>
+      <c r="E32">
+        <v>-0.09289654214390257</v>
+      </c>
+      <c r="F32">
+        <v>0.003391063688170648</v>
+      </c>
+      <c r="G32">
+        <v>-0.03699580246192171</v>
+      </c>
+      <c r="H32">
+        <v>-0.09504834159580913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.025494593386679</v>
+        <v>0.02446629574660047</v>
       </c>
       <c r="C33">
-        <v>0.02098548338622826</v>
+        <v>-0.04020798066168976</v>
       </c>
       <c r="D33">
-        <v>-0.1301625178310417</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1311672115899084</v>
+      </c>
+      <c r="E33">
+        <v>-0.0577162464671063</v>
+      </c>
+      <c r="F33">
+        <v>-0.01622629502234114</v>
+      </c>
+      <c r="G33">
+        <v>0.008863751958175695</v>
+      </c>
+      <c r="H33">
+        <v>-0.06244297212677569</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03358889391778209</v>
+        <v>0.02875054317600469</v>
       </c>
       <c r="C34">
-        <v>0.05830072067790694</v>
+        <v>-0.05998695883058323</v>
       </c>
       <c r="D34">
-        <v>-0.0679046102682512</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.06002953864445353</v>
+      </c>
+      <c r="E34">
+        <v>-0.004464790132847646</v>
+      </c>
+      <c r="F34">
+        <v>0.002610618128517365</v>
+      </c>
+      <c r="G34">
+        <v>-5.594849110080999e-05</v>
+      </c>
+      <c r="H34">
+        <v>-0.07526862909067526</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0006639864931643411</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0002426410651820157</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.003372939926316337</v>
+      </c>
+      <c r="E35">
+        <v>-0.0007509517604498789</v>
+      </c>
+      <c r="F35">
+        <v>0.000236550789763624</v>
+      </c>
+      <c r="G35">
+        <v>0.0004645333930368715</v>
+      </c>
+      <c r="H35">
+        <v>-0.002516230159097567</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02101890907019078</v>
+        <v>0.01901519985864116</v>
       </c>
       <c r="C36">
-        <v>9.353170499064266e-05</v>
+        <v>-0.01401788691966978</v>
       </c>
       <c r="D36">
-        <v>-0.07087948495476978</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0763597278441031</v>
+      </c>
+      <c r="E36">
+        <v>-0.03991838528287541</v>
+      </c>
+      <c r="F36">
+        <v>0.003479787937603446</v>
+      </c>
+      <c r="G36">
+        <v>-0.001733154255269818</v>
+      </c>
+      <c r="H36">
+        <v>-0.05020979338283578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.02705883395174596</v>
+        <v>0.02200030616465137</v>
       </c>
       <c r="C38">
-        <v>0.01653740507972757</v>
+        <v>-0.0208829948637594</v>
       </c>
       <c r="D38">
-        <v>-0.05479802048805646</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.06024864021937622</v>
+      </c>
+      <c r="E38">
+        <v>-0.0461877717468997</v>
+      </c>
+      <c r="F38">
+        <v>0.0046495326791935</v>
+      </c>
+      <c r="G38">
+        <v>0.04213102720983854</v>
+      </c>
+      <c r="H38">
+        <v>-0.03209240285993575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.04080585352235096</v>
+        <v>0.03700708583883901</v>
       </c>
       <c r="C39">
-        <v>0.04974868766061034</v>
+        <v>-0.06207989632628056</v>
       </c>
       <c r="D39">
-        <v>-0.08931626711368883</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.102609124331105</v>
+      </c>
+      <c r="E39">
+        <v>-0.01967471475230961</v>
+      </c>
+      <c r="F39">
+        <v>0.01991919176777383</v>
+      </c>
+      <c r="G39">
+        <v>0.01799177947034931</v>
+      </c>
+      <c r="H39">
+        <v>-0.08363006449397295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01688290816693078</v>
+        <v>0.01483868761159127</v>
       </c>
       <c r="C40">
-        <v>0.04114052119665282</v>
+        <v>-0.03556459043578508</v>
       </c>
       <c r="D40">
-        <v>-0.07551640399019813</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.08222410019927044</v>
+      </c>
+      <c r="E40">
+        <v>-0.07803969676293195</v>
+      </c>
+      <c r="F40">
+        <v>-0.05105828332556842</v>
+      </c>
+      <c r="G40">
+        <v>0.0517435283868554</v>
+      </c>
+      <c r="H40">
+        <v>-0.1523494355273681</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.02487977381874566</v>
+        <v>0.02318811097116215</v>
       </c>
       <c r="C41">
-        <v>-0.01016016842473146</v>
+        <v>-0.007467463599917547</v>
       </c>
       <c r="D41">
-        <v>-0.06709454044361177</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.0571143825583761</v>
+      </c>
+      <c r="E41">
+        <v>-0.05571570915438935</v>
+      </c>
+      <c r="F41">
+        <v>0.001600078412919831</v>
+      </c>
+      <c r="G41">
+        <v>0.01269194081157083</v>
+      </c>
+      <c r="H41">
+        <v>-0.04175881217391431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.03462149699402107</v>
+        <v>0.02544300552958624</v>
       </c>
       <c r="C43">
-        <v>0.0004906037511895431</v>
+        <v>-0.01766685248515663</v>
       </c>
       <c r="D43">
-        <v>-0.1043587960865096</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.08739855799824382</v>
+      </c>
+      <c r="E43">
+        <v>-0.04288924707683679</v>
+      </c>
+      <c r="F43">
+        <v>-0.0043856437166613</v>
+      </c>
+      <c r="G43">
+        <v>0.01802997041684357</v>
+      </c>
+      <c r="H43">
+        <v>-0.06093563518054407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01369655625603152</v>
+        <v>0.01694296566720839</v>
       </c>
       <c r="C44">
-        <v>0.0389177077579145</v>
+        <v>-0.04042315172651405</v>
       </c>
       <c r="D44">
-        <v>-0.08463076757326149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0943732604221633</v>
+      </c>
+      <c r="E44">
+        <v>-0.0772183962189642</v>
+      </c>
+      <c r="F44">
+        <v>0.002230581371187614</v>
+      </c>
+      <c r="G44">
+        <v>-0.001849309584956502</v>
+      </c>
+      <c r="H44">
+        <v>-0.07357815938882668</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02018261034148169</v>
+        <v>0.0165763598006985</v>
       </c>
       <c r="C46">
-        <v>0.0172450630617486</v>
+        <v>-0.02891020254175961</v>
       </c>
       <c r="D46">
-        <v>-0.07191143515854458</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0859286126153562</v>
+      </c>
+      <c r="E46">
+        <v>-0.04460868882671626</v>
+      </c>
+      <c r="F46">
+        <v>0.02040281689580561</v>
+      </c>
+      <c r="G46">
+        <v>-0.009045796634236342</v>
+      </c>
+      <c r="H46">
+        <v>-0.1013901531524312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.0941241815839212</v>
+        <v>0.08567253248377162</v>
       </c>
       <c r="C47">
-        <v>0.06827670927232224</v>
+        <v>-0.08823077208221469</v>
       </c>
       <c r="D47">
-        <v>-0.03973344219238912</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03395452552713189</v>
+      </c>
+      <c r="E47">
+        <v>-0.03964232472449686</v>
+      </c>
+      <c r="F47">
+        <v>-0.02428102684027596</v>
+      </c>
+      <c r="G47">
+        <v>-0.05561251658423239</v>
+      </c>
+      <c r="H47">
+        <v>-0.01823020485940266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.02104278387372183</v>
+        <v>0.01961401683686184</v>
       </c>
       <c r="C48">
-        <v>0.005777551389619625</v>
+        <v>-0.01791620117138074</v>
       </c>
       <c r="D48">
-        <v>-0.07003413948936006</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07715577183195574</v>
+      </c>
+      <c r="E48">
+        <v>-0.05455973548858093</v>
+      </c>
+      <c r="F48">
+        <v>0.01426949822316966</v>
+      </c>
+      <c r="G48">
+        <v>0.001401704882945224</v>
+      </c>
+      <c r="H48">
+        <v>-0.05177838954618316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0785122979744821</v>
+        <v>0.06119105645767642</v>
       </c>
       <c r="C50">
-        <v>0.06293158093785567</v>
+        <v>-0.0695979522224324</v>
       </c>
       <c r="D50">
-        <v>-0.06719454466479553</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05949018615058245</v>
+      </c>
+      <c r="E50">
+        <v>-0.04877075657158514</v>
+      </c>
+      <c r="F50">
+        <v>-0.04416701190919733</v>
+      </c>
+      <c r="G50">
+        <v>0.0162963425634007</v>
+      </c>
+      <c r="H50">
+        <v>-0.03141459392977813</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.007890400706519064</v>
+        <v>0.007713950641369623</v>
       </c>
       <c r="C51">
-        <v>0.01150398600272513</v>
+        <v>-0.01464648157587352</v>
       </c>
       <c r="D51">
-        <v>-0.07509327310036222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.08560079716437707</v>
+      </c>
+      <c r="E51">
+        <v>-0.03236781372088958</v>
+      </c>
+      <c r="F51">
+        <v>0.00436798924472295</v>
+      </c>
+      <c r="G51">
+        <v>0.0221609101394216</v>
+      </c>
+      <c r="H51">
+        <v>-0.07628943825886386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07703499617481833</v>
+        <v>0.0868666418192162</v>
       </c>
       <c r="C53">
-        <v>0.08763912760158654</v>
+        <v>-0.09978763959930598</v>
       </c>
       <c r="D53">
-        <v>-0.01772364644802541</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00469428674151433</v>
+      </c>
+      <c r="E53">
+        <v>-0.09944701614273645</v>
+      </c>
+      <c r="F53">
+        <v>-0.02909297089591611</v>
+      </c>
+      <c r="G53">
+        <v>-0.09781045297685807</v>
+      </c>
+      <c r="H53">
+        <v>0.008549010666538653</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.03423365914441188</v>
+        <v>0.0277053863520419</v>
       </c>
       <c r="C54">
-        <v>0.02705078985488179</v>
+        <v>-0.0341331894639415</v>
       </c>
       <c r="D54">
-        <v>-0.08454882432389826</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08617257090447451</v>
+      </c>
+      <c r="E54">
+        <v>-0.04569260855996133</v>
+      </c>
+      <c r="F54">
+        <v>0.01795304735431522</v>
+      </c>
+      <c r="G54">
+        <v>0.01927175449683182</v>
+      </c>
+      <c r="H54">
+        <v>-0.1074029555096629</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0878255584199813</v>
+        <v>0.08494916112017857</v>
       </c>
       <c r="C55">
-        <v>0.06649372456773135</v>
+        <v>-0.0809898742214392</v>
       </c>
       <c r="D55">
-        <v>0.001166877786239925</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01180481617173454</v>
+      </c>
+      <c r="E55">
+        <v>-0.05924077251982058</v>
+      </c>
+      <c r="F55">
+        <v>-0.03320411267448455</v>
+      </c>
+      <c r="G55">
+        <v>-0.04567216563208169</v>
+      </c>
+      <c r="H55">
+        <v>0.018868252123222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1378366178515844</v>
+        <v>0.1333398006315752</v>
       </c>
       <c r="C56">
-        <v>0.1024954109037671</v>
+        <v>-0.1245399647513424</v>
       </c>
       <c r="D56">
-        <v>-0.005041527890928857</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01292652237670607</v>
+      </c>
+      <c r="E56">
+        <v>-0.06086830943353869</v>
+      </c>
+      <c r="F56">
+        <v>-0.01970657197313797</v>
+      </c>
+      <c r="G56">
+        <v>-0.06469171186134973</v>
+      </c>
+      <c r="H56">
+        <v>0.01486454608731602</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.0324982029308335</v>
+        <v>0.03443025082822811</v>
       </c>
       <c r="C58">
-        <v>-0.02270340267981037</v>
+        <v>-0.0190172212407121</v>
       </c>
       <c r="D58">
-        <v>-0.3898332608967175</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3786495313573514</v>
+      </c>
+      <c r="E58">
+        <v>-0.2268903509894467</v>
+      </c>
+      <c r="F58">
+        <v>-0.1130599455057124</v>
+      </c>
+      <c r="G58">
+        <v>0.3136492481729186</v>
+      </c>
+      <c r="H58">
+        <v>0.4475243118115991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1346401954897971</v>
+        <v>0.1703021594368062</v>
       </c>
       <c r="C59">
-        <v>-0.1959780460706856</v>
+        <v>0.1738676639412396</v>
       </c>
       <c r="D59">
-        <v>-0.01477703322658757</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04496569132573946</v>
+      </c>
+      <c r="E59">
+        <v>-0.01947332645089641</v>
+      </c>
+      <c r="F59">
+        <v>0.03650532466492831</v>
+      </c>
+      <c r="G59">
+        <v>-0.001835968785741615</v>
+      </c>
+      <c r="H59">
+        <v>0.02046218304460372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2584870212632321</v>
+        <v>0.2348724393547452</v>
       </c>
       <c r="C60">
-        <v>0.04807081483481898</v>
+        <v>-0.0925346680070387</v>
       </c>
       <c r="D60">
-        <v>-0.1569921484711954</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1218122279503634</v>
+      </c>
+      <c r="E60">
+        <v>0.3538622941647668</v>
+      </c>
+      <c r="F60">
+        <v>-0.08060265153559287</v>
+      </c>
+      <c r="G60">
+        <v>-0.02492850092781308</v>
+      </c>
+      <c r="H60">
+        <v>0.06554276367919729</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.04627552120253611</v>
+        <v>0.04184381954010213</v>
       </c>
       <c r="C61">
-        <v>0.04784973253357807</v>
+        <v>-0.05751536621463306</v>
       </c>
       <c r="D61">
-        <v>-0.09873189935270975</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.09468625187011023</v>
+      </c>
+      <c r="E61">
+        <v>-0.01796512614288959</v>
+      </c>
+      <c r="F61">
+        <v>0.009300569539025335</v>
+      </c>
+      <c r="G61">
+        <v>-0.003413991975856291</v>
+      </c>
+      <c r="H61">
+        <v>-0.07929262713915404</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01670790426193011</v>
+        <v>0.0158344111718827</v>
       </c>
       <c r="C63">
-        <v>0.01648096491276122</v>
+        <v>-0.03027875499956671</v>
       </c>
       <c r="D63">
-        <v>-0.0610643622349157</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.07054630382163442</v>
+      </c>
+      <c r="E63">
+        <v>-0.05081830476424745</v>
+      </c>
+      <c r="F63">
+        <v>-0.02475381818339719</v>
+      </c>
+      <c r="G63">
+        <v>0.0174307471006786</v>
+      </c>
+      <c r="H63">
+        <v>-0.04156831524197346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.05773380154392628</v>
+        <v>0.05516890269699817</v>
       </c>
       <c r="C64">
-        <v>0.05985332233423611</v>
+        <v>-0.07671540794809523</v>
       </c>
       <c r="D64">
-        <v>-0.05952757394135001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05523777689430405</v>
+      </c>
+      <c r="E64">
+        <v>-0.03594639690815426</v>
+      </c>
+      <c r="F64">
+        <v>0.01832028802317242</v>
+      </c>
+      <c r="G64">
+        <v>-0.03893865125145737</v>
+      </c>
+      <c r="H64">
+        <v>-0.0545532125930313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.06063105048988703</v>
+        <v>0.05212785805394209</v>
       </c>
       <c r="C65">
-        <v>0.001082738980207132</v>
+        <v>-0.02560295107616988</v>
       </c>
       <c r="D65">
-        <v>-0.1150603364835706</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1192453351654773</v>
+      </c>
+      <c r="E65">
+        <v>-0.006610860337296565</v>
+      </c>
+      <c r="F65">
+        <v>-0.01949967251289439</v>
+      </c>
+      <c r="G65">
+        <v>0.03332754151674862</v>
+      </c>
+      <c r="H65">
+        <v>0.03599377576826579</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.0459617595577069</v>
+        <v>0.04359456198235483</v>
       </c>
       <c r="C66">
-        <v>0.05022427309487348</v>
+        <v>-0.06938466960769848</v>
       </c>
       <c r="D66">
-        <v>-0.1134211288970469</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1293620597295931</v>
+      </c>
+      <c r="E66">
+        <v>-0.02317374479537698</v>
+      </c>
+      <c r="F66">
+        <v>0.01059478200958645</v>
+      </c>
+      <c r="G66">
+        <v>0.01933011167056087</v>
+      </c>
+      <c r="H66">
+        <v>-0.05749854648018966</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.04568257722551712</v>
+        <v>0.03886474340773339</v>
       </c>
       <c r="C67">
-        <v>0.02382721300782414</v>
+        <v>-0.02647313138906967</v>
       </c>
       <c r="D67">
-        <v>-0.02796295771055975</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02475592142972251</v>
+      </c>
+      <c r="E67">
+        <v>-0.02924301621323731</v>
+      </c>
+      <c r="F67">
+        <v>-0.003666142651720905</v>
+      </c>
+      <c r="G67">
+        <v>0.04005047402262546</v>
+      </c>
+      <c r="H67">
+        <v>-0.0306647009687837</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.1656373832815084</v>
+        <v>0.1925529113297499</v>
       </c>
       <c r="C68">
-        <v>-0.2559921654462592</v>
+        <v>0.209007753040347</v>
       </c>
       <c r="D68">
-        <v>0.0182322723780664</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01633672143060872</v>
+      </c>
+      <c r="E68">
+        <v>-0.05453957817276309</v>
+      </c>
+      <c r="F68">
+        <v>-0.02519904335873643</v>
+      </c>
+      <c r="G68">
+        <v>0.009240930188196146</v>
+      </c>
+      <c r="H68">
+        <v>0.01325170939887278</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.08637740808939824</v>
+        <v>0.07837603206024232</v>
       </c>
       <c r="C69">
-        <v>0.07966698561933855</v>
+        <v>-0.09704116120776325</v>
       </c>
       <c r="D69">
-        <v>-0.05274561573029205</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0474308111919139</v>
+      </c>
+      <c r="E69">
+        <v>-0.03082556009462671</v>
+      </c>
+      <c r="F69">
+        <v>-0.003714612579637623</v>
+      </c>
+      <c r="G69">
+        <v>-0.03305054453908644</v>
+      </c>
+      <c r="H69">
+        <v>-0.0287949216931312</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.1380152888952498</v>
+        <v>0.1763411273274162</v>
       </c>
       <c r="C71">
-        <v>-0.2512142063308934</v>
+        <v>0.2205719708732731</v>
       </c>
       <c r="D71">
-        <v>-0.01407248414760554</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.0365853776006056</v>
+      </c>
+      <c r="E71">
+        <v>-0.05483627168794258</v>
+      </c>
+      <c r="F71">
+        <v>-0.02309604653180118</v>
+      </c>
+      <c r="G71">
+        <v>-0.0333073366836439</v>
+      </c>
+      <c r="H71">
+        <v>-0.0192575957371192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09918030090829737</v>
+        <v>0.1016714901640347</v>
       </c>
       <c r="C72">
-        <v>0.03370791028503992</v>
+        <v>-0.06260555708076429</v>
       </c>
       <c r="D72">
-        <v>-0.09386859498453827</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0977060269744577</v>
+      </c>
+      <c r="E72">
+        <v>0.02403391748479017</v>
+      </c>
+      <c r="F72">
+        <v>-0.03450741830753263</v>
+      </c>
+      <c r="G72">
+        <v>-0.01592556896985345</v>
+      </c>
+      <c r="H72">
+        <v>-0.03171552951109922</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.3159222520676123</v>
+        <v>0.2663623838217802</v>
       </c>
       <c r="C73">
-        <v>0.00342318441487015</v>
+        <v>-0.0763209837038924</v>
       </c>
       <c r="D73">
-        <v>-0.273345887307922</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.198634691682015</v>
+      </c>
+      <c r="E73">
+        <v>0.6716076436292153</v>
+      </c>
+      <c r="F73">
+        <v>-0.09204392574096207</v>
+      </c>
+      <c r="G73">
+        <v>0.02026754418478946</v>
+      </c>
+      <c r="H73">
+        <v>0.1267824232568351</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1039404235134219</v>
+        <v>0.1018098783855343</v>
       </c>
       <c r="C74">
-        <v>0.06522877292116074</v>
+        <v>-0.08834738957060033</v>
       </c>
       <c r="D74">
-        <v>-0.01980203051510409</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.001815110839510517</v>
+      </c>
+      <c r="E74">
+        <v>-0.08480091424048919</v>
+      </c>
+      <c r="F74">
+        <v>-0.04292672671786453</v>
+      </c>
+      <c r="G74">
+        <v>-0.0659084563313159</v>
+      </c>
+      <c r="H74">
+        <v>0.04446297226542548</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2460050914229137</v>
+        <v>0.237567623614443</v>
       </c>
       <c r="C75">
-        <v>0.1358471350689021</v>
+        <v>-0.1675370575298014</v>
       </c>
       <c r="D75">
-        <v>0.05911836769193567</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1037282792453748</v>
+      </c>
+      <c r="E75">
+        <v>-0.07554277082811736</v>
+      </c>
+      <c r="F75">
+        <v>0.006906441078487448</v>
+      </c>
+      <c r="G75">
+        <v>-0.113190952216806</v>
+      </c>
+      <c r="H75">
+        <v>0.1276831203378775</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1270946350557159</v>
+        <v>0.1262398180958883</v>
       </c>
       <c r="C76">
-        <v>0.0870181456837595</v>
+        <v>-0.1130590567733687</v>
       </c>
       <c r="D76">
-        <v>0.006967153096210606</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.02064015383276262</v>
+      </c>
+      <c r="E76">
+        <v>-0.1156025046360361</v>
+      </c>
+      <c r="F76">
+        <v>-0.01423307842330675</v>
+      </c>
+      <c r="G76">
+        <v>-0.06409635086467115</v>
+      </c>
+      <c r="H76">
+        <v>0.009310078225107869</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.07462158745392135</v>
+        <v>0.06680748488771213</v>
       </c>
       <c r="C77">
-        <v>0.04923523863506282</v>
+        <v>-0.06764472374315998</v>
       </c>
       <c r="D77">
-        <v>-0.06943352915666524</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1347110625423715</v>
+      </c>
+      <c r="E77">
+        <v>-0.12491651126972</v>
+      </c>
+      <c r="F77">
+        <v>0.2853579471863344</v>
+      </c>
+      <c r="G77">
+        <v>0.01765749441344362</v>
+      </c>
+      <c r="H77">
+        <v>0.2276944083996486</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.03760801656476646</v>
+        <v>0.03958111106366368</v>
       </c>
       <c r="C78">
-        <v>0.04584033515715941</v>
+        <v>-0.05979273842527181</v>
       </c>
       <c r="D78">
-        <v>-0.1107179390594097</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1237350399808451</v>
+      </c>
+      <c r="E78">
+        <v>-0.02792160233544835</v>
+      </c>
+      <c r="F78">
+        <v>-0.02096311647326313</v>
+      </c>
+      <c r="G78">
+        <v>-0.02114189104869624</v>
+      </c>
+      <c r="H78">
+        <v>-0.04821570972856911</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.0009584078762139936</v>
+        <v>0.04150379567090497</v>
       </c>
       <c r="C79">
-        <v>-0.0001741902023170974</v>
+        <v>-0.08497109065159807</v>
       </c>
       <c r="D79">
-        <v>-0.01663575551564195</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03081278103081573</v>
+      </c>
+      <c r="E79">
+        <v>-0.167237305037578</v>
+      </c>
+      <c r="F79">
+        <v>-0.0776319827170656</v>
+      </c>
+      <c r="G79">
+        <v>-0.6284201310132389</v>
+      </c>
+      <c r="H79">
+        <v>0.4112664716717876</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.03006304437791988</v>
+        <v>0.02525247273557163</v>
       </c>
       <c r="C80">
-        <v>0.01339832010357135</v>
+        <v>-0.03571571659896823</v>
       </c>
       <c r="D80">
-        <v>-0.0257630178567013</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03529187998130356</v>
+      </c>
+      <c r="E80">
+        <v>-0.01576634896075463</v>
+      </c>
+      <c r="F80">
+        <v>0.03973672949641285</v>
+      </c>
+      <c r="G80">
+        <v>0.05049337078686529</v>
+      </c>
+      <c r="H80">
+        <v>-0.02756804397510577</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1422738834468105</v>
+        <v>0.1313650074014377</v>
       </c>
       <c r="C81">
-        <v>0.1000954018138265</v>
+        <v>-0.1185561784239607</v>
       </c>
       <c r="D81">
-        <v>0.0481504901982775</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07051224883448813</v>
+      </c>
+      <c r="E81">
+        <v>-0.1123903583084851</v>
+      </c>
+      <c r="F81">
+        <v>-0.002983108740426486</v>
+      </c>
+      <c r="G81">
+        <v>-0.06144431954813647</v>
+      </c>
+      <c r="H81">
+        <v>0.03707055124012324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.2884771613902555</v>
+        <v>0.2486263683588741</v>
       </c>
       <c r="C82">
-        <v>0.2650389383391212</v>
+        <v>-0.2479391788882748</v>
       </c>
       <c r="D82">
-        <v>0.2214966572151766</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2211704955391745</v>
+      </c>
+      <c r="E82">
+        <v>-6.644268129288617e-05</v>
+      </c>
+      <c r="F82">
+        <v>-0.04252486561753045</v>
+      </c>
+      <c r="G82">
+        <v>-0.1753317592645053</v>
+      </c>
+      <c r="H82">
+        <v>-0.5059289230088579</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02844584876655337</v>
+        <v>0.02289759708361216</v>
       </c>
       <c r="C83">
-        <v>0.04393883337628869</v>
+        <v>-0.05046444587537711</v>
       </c>
       <c r="D83">
-        <v>-0.04974846175669925</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05305551323475341</v>
+      </c>
+      <c r="E83">
+        <v>-0.009546523414313501</v>
+      </c>
+      <c r="F83">
+        <v>0.02400018736562068</v>
+      </c>
+      <c r="G83">
+        <v>0.004396494449427741</v>
+      </c>
+      <c r="H83">
+        <v>-0.033069935504634</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>4.835104064257154e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004780918619167946</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.01463964807390924</v>
+      </c>
+      <c r="E84">
+        <v>-0.01495566896357175</v>
+      </c>
+      <c r="F84">
+        <v>-0.005200506720463354</v>
+      </c>
+      <c r="G84">
+        <v>0.009618376163517954</v>
+      </c>
+      <c r="H84">
+        <v>-0.001372788974237605</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1825480859072774</v>
+        <v>0.1634493244868833</v>
       </c>
       <c r="C85">
-        <v>0.09240999740591709</v>
+        <v>-0.1313670802113282</v>
       </c>
       <c r="D85">
-        <v>0.04214283062885614</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.07362820414381266</v>
+      </c>
+      <c r="E85">
+        <v>-0.04391516379711376</v>
+      </c>
+      <c r="F85">
+        <v>-0.03689218455588494</v>
+      </c>
+      <c r="G85">
+        <v>-0.1075528761294783</v>
+      </c>
+      <c r="H85">
+        <v>0.1057239885565764</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01414375824408525</v>
+        <v>0.01960410296236267</v>
       </c>
       <c r="C86">
-        <v>0.0201830844102432</v>
+        <v>-0.02141556385477517</v>
       </c>
       <c r="D86">
-        <v>-0.1336168841186342</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1229575532520126</v>
+      </c>
+      <c r="E86">
+        <v>-0.01543414308474324</v>
+      </c>
+      <c r="F86">
+        <v>0.006792292395330733</v>
+      </c>
+      <c r="G86">
+        <v>-0.02126255060473212</v>
+      </c>
+      <c r="H86">
+        <v>-0.07141637792405083</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02689930583062887</v>
+        <v>0.03240252261444233</v>
       </c>
       <c r="C87">
-        <v>0.001326707889937417</v>
+        <v>-0.02469839135555886</v>
       </c>
       <c r="D87">
-        <v>-0.08801587592552408</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1249881648154495</v>
+      </c>
+      <c r="E87">
+        <v>-0.08651227872169623</v>
+      </c>
+      <c r="F87">
+        <v>0.01836120765566248</v>
+      </c>
+      <c r="G87">
+        <v>0.01503200522428634</v>
+      </c>
+      <c r="H87">
+        <v>-0.02913176643951272</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.08220998131303685</v>
+        <v>0.07438306514824725</v>
       </c>
       <c r="C88">
-        <v>0.04059911423985975</v>
+        <v>-0.0580949452398538</v>
       </c>
       <c r="D88">
-        <v>-0.04480957636038457</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.02668308357497581</v>
+      </c>
+      <c r="E88">
+        <v>-0.02963129597254533</v>
+      </c>
+      <c r="F88">
+        <v>-0.001092298539426873</v>
+      </c>
+      <c r="G88">
+        <v>0.006354826813991086</v>
+      </c>
+      <c r="H88">
+        <v>-0.02856876114132875</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1973232348408019</v>
+        <v>0.2649082816734598</v>
       </c>
       <c r="C89">
-        <v>-0.364603384406374</v>
+        <v>0.3555487314651007</v>
       </c>
       <c r="D89">
-        <v>0.05350533506927926</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01500834406050523</v>
+      </c>
+      <c r="E89">
+        <v>-0.06000006956740862</v>
+      </c>
+      <c r="F89">
+        <v>0.04315675968232695</v>
+      </c>
+      <c r="G89">
+        <v>-0.0178563421794633</v>
+      </c>
+      <c r="H89">
+        <v>-0.06322617104747678</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.1947636122068092</v>
+        <v>0.2330957112577903</v>
       </c>
       <c r="C90">
-        <v>-0.2990682026798653</v>
+        <v>0.2648463513413306</v>
       </c>
       <c r="D90">
-        <v>0.05360683973566785</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.005259222116258601</v>
+      </c>
+      <c r="E90">
+        <v>-0.05614062916404139</v>
+      </c>
+      <c r="F90">
+        <v>-0.002318040284430113</v>
+      </c>
+      <c r="G90">
+        <v>0.04442493120471853</v>
+      </c>
+      <c r="H90">
+        <v>-0.0414711537503788</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.1822658384702589</v>
+        <v>0.1678878913916723</v>
       </c>
       <c r="C91">
-        <v>0.1321259251785287</v>
+        <v>-0.1587383369578546</v>
       </c>
       <c r="D91">
-        <v>0.05937984719724322</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.0844757026746798</v>
+      </c>
+      <c r="E91">
+        <v>-0.097203386777943</v>
+      </c>
+      <c r="F91">
+        <v>-0.01772342370202878</v>
+      </c>
+      <c r="G91">
+        <v>-0.1022038351238986</v>
+      </c>
+      <c r="H91">
+        <v>0.1203742798518758</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1591781648761478</v>
+        <v>0.2101730287285131</v>
       </c>
       <c r="C92">
-        <v>-0.2888270610654449</v>
+        <v>0.276838934195769</v>
       </c>
       <c r="D92">
-        <v>0.01466805021640258</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01085330798800502</v>
+      </c>
+      <c r="E92">
+        <v>-0.08742896303376954</v>
+      </c>
+      <c r="F92">
+        <v>0.0357814016289341</v>
+      </c>
+      <c r="G92">
+        <v>-0.001661468709508237</v>
+      </c>
+      <c r="H92">
+        <v>-0.03920215956378954</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.2257671234353153</v>
+        <v>0.2575068521258278</v>
       </c>
       <c r="C93">
-        <v>-0.324316767700173</v>
+        <v>0.2779388032388889</v>
       </c>
       <c r="D93">
-        <v>0.03137888297409675</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01597549787496599</v>
+      </c>
+      <c r="E93">
+        <v>-0.02723998322975296</v>
+      </c>
+      <c r="F93">
+        <v>-0.03399953695033788</v>
+      </c>
+      <c r="G93">
+        <v>-0.007612613569625507</v>
+      </c>
+      <c r="H93">
+        <v>-0.005852802486668247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3872960281303991</v>
+        <v>0.335281694462672</v>
       </c>
       <c r="C94">
-        <v>0.246485572603841</v>
+        <v>-0.260632159289296</v>
       </c>
       <c r="D94">
-        <v>0.466438798177321</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.446830065033463</v>
+      </c>
+      <c r="E94">
+        <v>-0.108268401522608</v>
+      </c>
+      <c r="F94">
+        <v>0.04331776355602457</v>
+      </c>
+      <c r="G94">
+        <v>0.5887516112229567</v>
+      </c>
+      <c r="H94">
+        <v>0.1496748281807376</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.08626835450001992</v>
+        <v>0.07468579753408131</v>
       </c>
       <c r="C95">
-        <v>0.05980794340715456</v>
+        <v>-0.05809758279028855</v>
       </c>
       <c r="D95">
-        <v>-0.1217711616487121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09186198197103533</v>
+      </c>
+      <c r="E95">
+        <v>0.09867534624999244</v>
+      </c>
+      <c r="F95">
+        <v>0.9102702149974409</v>
+      </c>
+      <c r="G95">
+        <v>-0.05996367275747055</v>
+      </c>
+      <c r="H95">
+        <v>0.02224335363486651</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1787589894343747</v>
+        <v>0.1659366067088845</v>
       </c>
       <c r="C98">
-        <v>0.01096997525837222</v>
+        <v>-0.05421434640664055</v>
       </c>
       <c r="D98">
-        <v>-0.1468008362173074</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1342536736418473</v>
+      </c>
+      <c r="E98">
+        <v>0.2941629461096216</v>
+      </c>
+      <c r="F98">
+        <v>-0.08489006221564993</v>
+      </c>
+      <c r="G98">
+        <v>-0.03306014465689026</v>
+      </c>
+      <c r="H98">
+        <v>0.0117483081510405</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0048104088380659</v>
+        <v>0.006861672640830114</v>
       </c>
       <c r="C101">
-        <v>0.01706763405729129</v>
+        <v>-0.02102805225291275</v>
       </c>
       <c r="D101">
-        <v>-0.06292817584166249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.07766204991493086</v>
+      </c>
+      <c r="E101">
+        <v>-0.04416402906243771</v>
+      </c>
+      <c r="F101">
+        <v>-0.001775061351911955</v>
+      </c>
+      <c r="G101">
+        <v>-0.0004678089793783567</v>
+      </c>
+      <c r="H101">
+        <v>-0.09916579070057839</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1261026521553691</v>
+        <v>0.1121299030576006</v>
       </c>
       <c r="C102">
-        <v>0.1110824871665979</v>
+        <v>-0.1186265030462455</v>
       </c>
       <c r="D102">
-        <v>0.03470846057300656</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04950103675510516</v>
+      </c>
+      <c r="E102">
+        <v>-0.0299701035299853</v>
+      </c>
+      <c r="F102">
+        <v>0.0191047682024056</v>
+      </c>
+      <c r="G102">
+        <v>-0.0572314147909613</v>
+      </c>
+      <c r="H102">
+        <v>-0.02095795088209656</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
